--- a/public/xlsx/koa/usuarios-catalogoKOA.xlsx
+++ b/public/xlsx/koa/usuarios-catalogoKOA.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25825"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9064E274-255C-4B73-90AE-DA9B1A03469B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sernar/GITHUB/vmlyr/trade/src/xlsx/koa/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2377CA-8252-7641-B97F-69B71332AAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36120" yWindow="5300" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">NOMBRE </t>
   </si>
@@ -45,13 +50,49 @@
   </si>
   <si>
     <t>rodrigo.sfeir@ab-inbev.com</t>
+  </si>
+  <si>
+    <t>Rodrigo Lopez</t>
+  </si>
+  <si>
+    <t>Carlos Vega</t>
+  </si>
+  <si>
+    <t>Miguel Angel Millan</t>
+  </si>
+  <si>
+    <t>Marco Vergara</t>
+  </si>
+  <si>
+    <t>Maria Jesus Galleguillos</t>
+  </si>
+  <si>
+    <t>Katalina Briceño</t>
+  </si>
+  <si>
+    <t>rodrigo.lopez@ab-inbev.com</t>
+  </si>
+  <si>
+    <t>carlos.vega1@ab-inbev.com</t>
+  </si>
+  <si>
+    <t>miguel.millan@ab-inbev.com</t>
+  </si>
+  <si>
+    <t>marco.vergara@cerchile.cl</t>
+  </si>
+  <si>
+    <t>mjgalleguillos@koandina.com</t>
+  </si>
+  <si>
+    <t>kbriceno@koandina.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +106,29 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -89,12 +153,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -111,7 +178,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -407,19 +474,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,26 +494,80 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{298C6AE8-0FCF-4B27-903B-311BEA8EAE91}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{AA7EF0AD-A968-41DB-AC0C-43B1A2151584}"/>
+    <hyperlink ref="B2" r:id="rId1" display="mailto:josefina.zilleruelo@ab-inbev.com" xr:uid="{7459F8E9-3DEF-284C-877B-5C6F1944784F}"/>
+    <hyperlink ref="B3" r:id="rId2" display="mailto:rodrigo.sfeir@ab-inbev.com" xr:uid="{2C096D1C-FCF0-3A4B-BAD9-C19BE070A2AF}"/>
+    <hyperlink ref="B4" r:id="rId3" display="mailto:rodrigo.lopez@ab-inbev.com" xr:uid="{80540673-A4C0-6F41-977C-3247C680BAE7}"/>
+    <hyperlink ref="B5" r:id="rId4" display="mailto:carlos.vega1@ab-inbev.com" xr:uid="{F44B3046-5A0F-6146-8D72-C6F56C761ABA}"/>
+    <hyperlink ref="B6" r:id="rId5" display="mailto:miguel.millan@ab-inbev.com" xr:uid="{E5482751-BC5D-8441-ABF9-91285E073F72}"/>
+    <hyperlink ref="B7" r:id="rId6" display="mailto:marco.vergara@cerchile.cl" xr:uid="{518D06EC-B674-8B41-8342-93F94296D791}"/>
+    <hyperlink ref="B8" r:id="rId7" display="mailto:mjgalleguillos@koandina.com" xr:uid="{F08D0673-4AD7-3A47-9D4D-9A6668A71B18}"/>
+    <hyperlink ref="B9" r:id="rId8" display="mailto:kbriceno@koandina.com" xr:uid="{61CF1E9F-2EE4-074E-86A7-89157748304B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
